--- a/BT_Tuan6_1150080160_LeThanhTinh.xlsx
+++ b/BT_Tuan6_1150080160_LeThanhTinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bai1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Bai3" sheetId="3" r:id="rId3"/>
     <sheet name="Bai4" sheetId="4" r:id="rId4"/>
     <sheet name="Bai5" sheetId="5" r:id="rId5"/>
+    <sheet name="Bai6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="401">
   <si>
     <t>Bài 2</t>
   </si>
@@ -1568,12 +1569,246 @@
   <si>
     <t>Viết unit test cho các kịch bản kiểm thử</t>
   </si>
+  <si>
+    <t>BÀI 6 – QUẢN LÝ DỮ LIỆU (WINFORMS + DATABASE + UNIT TEST)</t>
+  </si>
+  <si>
+    <t>CSDL</t>
+  </si>
+  <si>
+    <t>TC601</t>
+  </si>
+  <si>
+    <t>EmpId rỗng</t>
+  </si>
+  <si>
+    <t>Nhập EmpId="" → Save</t>
+  </si>
+  <si>
+    <t>Báo lỗi bắt buộc nhập</t>
+  </si>
+  <si>
+    <t>TC602</t>
+  </si>
+  <si>
+    <t>EmpName rỗng</t>
+  </si>
+  <si>
+    <t>Nhập Name="" → Save</t>
+  </si>
+  <si>
+    <t>TC603</t>
+  </si>
+  <si>
+    <t>Thêm nhân viên hợp lệ</t>
+  </si>
+  <si>
+    <t>Nhập đủ thông tin → Save</t>
+  </si>
+  <si>
+    <t>E01, An, 25</t>
+  </si>
+  <si>
+    <t>TC604</t>
+  </si>
+  <si>
+    <t>Trùng EmpId</t>
+  </si>
+  <si>
+    <t>Nhập EmpId đã tồn tại → Save</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>Báo lỗi trùng</t>
+  </si>
+  <si>
+    <t>TC605</t>
+  </si>
+  <si>
+    <t>Age âm</t>
+  </si>
+  <si>
+    <t>Nhập Age = -1 → Save</t>
+  </si>
+  <si>
+    <t>TC606</t>
+  </si>
+  <si>
+    <t>Age = 0 (biên dưới)</t>
+  </si>
+  <si>
+    <t>Nhập Age = 0 → Save</t>
+  </si>
+  <si>
+    <t>TC607</t>
+  </si>
+  <si>
+    <t>Age hợp lệ</t>
+  </si>
+  <si>
+    <t>Nhập Age = 30 → Save</t>
+  </si>
+  <si>
+    <t>TC608</t>
+  </si>
+  <si>
+    <t>Age &gt; 120</t>
+  </si>
+  <si>
+    <t>Nhập Age = 150 → Save</t>
+  </si>
+  <si>
+    <t>TC609</t>
+  </si>
+  <si>
+    <t>Update nhân viên</t>
+  </si>
+  <si>
+    <t>Chọn NV → Update</t>
+  </si>
+  <si>
+    <t>Name mới</t>
+  </si>
+  <si>
+    <t>Cập nhật thành công</t>
+  </si>
+  <si>
+    <t>Thành công</t>
+  </si>
+  <si>
+    <t>TC610</t>
+  </si>
+  <si>
+    <t>Delete nhân viên</t>
+  </si>
+  <si>
+    <t>Chọn NV → Delete</t>
+  </si>
+  <si>
+    <t>Xóa thành công</t>
+  </si>
+  <si>
+    <t>TC611</t>
+  </si>
+  <si>
+    <t>Delete khi chưa chọn</t>
+  </si>
+  <si>
+    <t>Click Delete</t>
+  </si>
+  <si>
+    <t>Không báo</t>
+  </si>
+  <si>
+    <t>TC612</t>
+  </si>
+  <si>
+    <t>Load dữ liệu</t>
+  </si>
+  <si>
+    <t>Mở form</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Hiển thị DS NV</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng</t>
+  </si>
+  <si>
+    <t>BUG601</t>
+  </si>
+  <si>
+    <t>Trùng EmpId gây SQL Exception</t>
+  </si>
+  <si>
+    <t>Nhập EmpId trùng → Save</t>
+  </si>
+  <si>
+    <t>Thông báo thân thiện</t>
+  </si>
+  <si>
+    <t>BUG602</t>
+  </si>
+  <si>
+    <t>Delete khi chưa chọn không báo lỗi</t>
+  </si>
+  <si>
+    <t>Click Delete khi chưa chọn</t>
+  </si>
+  <si>
+    <t>BẢNG BÁO CÁO LỖI</t>
+  </si>
+  <si>
+    <t>BẢNG TÓM TẮT (SUMMARY REPORT)</t>
+  </si>
+  <si>
+    <t>Chia dữ liệu thành các nhóm hợp lệ và không hợp lệ (Age hợp lệ, Age âm, EmpId rỗng, EmpId trùng…)</t>
+  </si>
+  <si>
+    <t>Kiểm thử các giá trị biên như Age = 0, Age = 120, độ dài chuỗi Name</t>
+  </si>
+  <si>
+    <t>Xây dựng form WinForms kết nối cơ sở dữ liệu SQL Server</t>
+  </si>
+  <si>
+    <t>Thực hiện đầy đủ các chức năng thêm, sửa, xóa, hiển thị dữ liệu</t>
+  </si>
+  <si>
+    <t>Thiết kế test case theo EP &amp; BVA bao phủ các trường hợp quan trọng</t>
+  </si>
+  <si>
+    <t>Phát hiện và ghi nhận lỗi bằng Bug Report rõ ràng</t>
+  </si>
+  <si>
+    <t>Đảm bảo kết quả kiểm thử dễ tái lập và phù hợp thực tế</t>
+  </si>
+  <si>
+    <t>GIẢI THÍCH EP &amp; BVA</t>
+  </si>
+  <si>
+    <t>Giúp giảm số test case nhưng vẫn đảm bảo phát hiện lỗi</t>
+  </si>
+  <si>
+    <r>
+      <t>Equivalence Partitioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boundary Value Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,6 +1937,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1744,7 +1987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1802,6 +2045,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2065,13 +2318,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>382840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>18077</xdr:rowOff>
+      <xdr:rowOff>40937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2088,7 +2341,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1531620"/>
+          <a:off x="0" y="1554480"/>
           <a:ext cx="13184440" cy="6677957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2341,13 +2594,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>13854</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
+      <xdr:rowOff>41564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>402357</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>199121</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>124692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2364,8 +2617,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13854" y="7453745"/>
-          <a:ext cx="10336067" cy="5934903"/>
+          <a:off x="13854" y="7453746"/>
+          <a:ext cx="10336067" cy="5126182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2404,6 +2657,87 @@
         <a:xfrm>
           <a:off x="10501746" y="7564582"/>
           <a:ext cx="6573167" cy="4382112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83264</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="708660"/>
+          <a:ext cx="9669224" cy="2276793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>178783</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>53888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3337560"/>
+          <a:ext cx="11593543" cy="3924848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2882,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.8">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>1</v>
       </c>
@@ -2893,7 +3227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="43.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2904,7 +3238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="43.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +3316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -3062,7 +3396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O123" sqref="O123"/>
     </sheetView>
   </sheetViews>
@@ -3284,7 +3618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="72">
+    <row r="77" spans="1:10" ht="43.2">
       <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
@@ -4361,7 +4695,7 @@
   <dimension ref="A1:Y166"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4609,7 +4943,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="43.2">
+    <row r="75" spans="1:25" ht="28.8">
       <c r="A75" s="4" t="s">
         <v>95</v>
       </c>
@@ -5035,6 +5369,507 @@
     <row r="166" spans="1:1">
       <c r="A166" t="s">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.4">
+      <c r="A1" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="25.8">
+      <c r="A3" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="43.2">
+      <c r="A42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="43.2">
+      <c r="A43" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="43.2">
+      <c r="A44" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="57.6">
+      <c r="A45" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="72">
+      <c r="A46" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="43.2">
+      <c r="A47" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D47" s="25">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="43.2">
+      <c r="A48" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" s="25">
+        <v>0</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="43.2">
+      <c r="A49" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D49" s="25">
+        <v>30</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="57.6">
+      <c r="A50" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D50" s="25">
+        <v>150</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="43.2">
+      <c r="A51" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="43.2">
+      <c r="A52" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="43.2">
+      <c r="A53" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="28.8">
+      <c r="A54" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.6">
+      <c r="A58" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.8">
+      <c r="A60" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28.8">
+      <c r="A61" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.6">
+      <c r="A63" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4">
+        <v>12</v>
+      </c>
+      <c r="B65" s="4">
+        <v>10</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2</v>
+      </c>
+      <c r="D65" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23.4">
+      <c r="A67" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="27" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="27" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1">
+      <c r="A72" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23.4">
+      <c r="A73" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.2" customHeight="1">
+      <c r="A74" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="26" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
